--- a/Lab_4/LCS/График(LCS).xlsx
+++ b/Lab_4/LCS/График(LCS).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Labs_2k_2s\Math_programming\Lab_4\LCS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62138EF4-2FA1-4306-BC4A-44F40DBD1A14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="8460" yWindow="3240" windowWidth="27870" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -33,7 +39,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -64,9 +70,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -85,7 +94,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -135,7 +144,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -144,6 +152,37 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="85000"/>
+                      <a:lumOff val="15000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -191,6 +230,28 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.3138180299082571E-2"/>
+                  <c:y val="-3.7037037037037035E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-1112-472A-B5DA-C47574A377AA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -227,7 +288,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -267,16 +327,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>55</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3279</c:v>
+                  <c:v>1151</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3BBD-4949-87A8-5199671698EC}"/>
             </c:ext>
@@ -322,6 +382,28 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8902248815728235E-2"/>
+                  <c:y val="2.3148148148148064E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-1112-472A-B5DA-C47574A377AA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -358,7 +440,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -407,7 +488,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3BBD-4949-87A8-5199671698EC}"/>
             </c:ext>
@@ -426,7 +507,7 @@
         <c:smooth val="0"/>
         <c:axId val="72084864"/>
         <c:axId val="75445760"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
@@ -434,7 +515,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$C$1</c15:sqref>
@@ -444,7 +525,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>количество символов</c:v>
+                        <c:v>кол-во симв</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -520,7 +601,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$C$2:$C$5</c15:sqref>
@@ -541,7 +622,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$C$2:$C$5</c15:sqref>
@@ -561,7 +642,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-3BBD-4949-87A8-5199671698EC}"/>
                   </c:ext>
@@ -604,7 +685,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -613,6 +693,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -686,12 +786,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>Время выполнения(сек)</a:t>
+                  <a:t>Время выполнения</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -700,6 +799,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -719,7 +838,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1340,20 +1458,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>819564</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>12424</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>124239</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1626,18 +1750,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1659,7 +1783,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1670,7 +1794,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3279</v>
+        <v>1151</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1679,6 +1803,9 @@
         <v>0.05</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
